--- a/data/new_data_raw_91_.xlsx
+++ b/data/new_data_raw_91_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B172"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Türkiye (K)</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tetouan</t>
+          <t>Rusya (K)</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>(İY 0 - 0)</t>
+          <t>(İY 0 - 2)</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17-12-23 | Botola Pro | 12. Hafta | Stat: Stade Municipal de Berrechid</t>
+          <t>01-12-20 | UEFA Kadınlar Şampiyonası | 10. Hafta | Stat: Arslan Zeki Demirci Spor Kompleksi | TV: sportstv</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAÇ SONUCU 40926 MBS 3</t>
+          <t>MAÇ SONUCU 14006 MBS 3</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>8.25</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>5.00</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.10</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ÇIFTE ŞANS 40928 MBS 3</t>
+          <t>ÇIFTE ŞANS 14007 MBS 3</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2.20</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1,5 ALT/ÜST 40960 MBS 3</t>
+          <t>4,5 ALT/ÜST 14016 MBS 3</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.20</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2,5 ALT/ÜST 40961 MBS 3</t>
+          <t>3,5 ALT/ÜST 14015 MBS 3</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.55</t>
         </is>
       </c>
     </row>
@@ -744,7 +744,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,5 ALT/ÜST 40959 MBS 3</t>
+          <t>5,5 ALT/ÜST 14017 MBS 3</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>1.05</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3.60</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1. YARI 1,5 ALT/ÜST 40967 MBS 3</t>
+          <t>2,5 ALT/ÜST 14013 MBS 3</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>1.30</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1. YARI 0,5 ALT/ÜST 40966 MBS 3</t>
+          <t>1,5 ALT/ÜST 14012 MBS 3</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>3.90</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.05</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1. YARI 2,5 ALT/ÜST 40968 MBS 3</t>
+          <t>1. YARI 2,5 ALT/ÜST 14088 MBS 3</t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1.12</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1. YARI ÇIFTE ŞANS 40965 MBS 3</t>
+          <t>1. YARI 1,5 ALT/ÜST 14087 MBS 3</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1-X</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>X-2</t>
+          <t>1. YARI 0,5 ALT/ÜST 14034 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>Alt</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1. YARI SONUCU 40964 MBS 3</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Üst</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.15</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1. YARI ÇIFTE ŞANS 14033 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1-X</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2. YARI SONUCU 40969 MBS 3</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>X-2</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>1. YARI SONUCU 14020 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8.00</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TEK/ÇIFT 40973 MBS 3</t>
+          <t>2.45</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tek</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Çift</t>
+          <t>TEK/ÇIFT 14090 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>Tek</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TOPLAM GOL ARALIĞI 40963 MBS 3</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>Çift</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.67</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>TOPLAM GOL ARALIĞI 14019 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>0-1</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4.00</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>2-3</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6+</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>4-5</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>KARŞILIKLI GOL 40962 MBS 3</t>
+          <t>2.30</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Var</t>
+          <t>6+</t>
         </is>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Yok</t>
+          <t>KARŞILIKLI GOL 14018 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>Var</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>HND. MS (1:0) 40929 MBS 3</t>
+          <t>1.85</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>+1h</t>
+          <t>Yok</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.50</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>İLK YARI/MAÇ SONUCU 14089 MBS 2</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>1/1</t>
         </is>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15.00</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>X/1</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MS VE 2,5 ALT/ÜST 40931 MBS 3</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>2/1</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>50.00</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>1/X</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>X/X</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>7.50</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>2/X</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>20.00</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>1/2</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>18.55</t>
+          <t>17.00</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>X/2</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MS VE 1,5 ALT/ÜST 40930 MBS 3</t>
+          <t>2/2</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>1.35</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>HND. MS (0:1) 14008 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>12.00</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.40</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
+          <t>HND. MS (1:0) 14010 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>+1h</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2 ve Üst</t>
+          <t>2.20</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MS VE 3,5 ALT/ÜST 40932 MBS 3</t>
+          <t>3.40</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1 ve Alt</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>X ve Alt</t>
+          <t>HND. MS (2:0) 14011 MBS 3</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>+2h</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2 ve Alt</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1 ve Üst</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1774,377 +1774,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>X ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>18.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2 ve Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>14.35</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>1. YARI DEPLASMAN 0,5 ALT/ÜST 40980 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>12+</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>EV SAHIBI 0,5 A/Ü 40970 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>EN ÇOK GOL OLACAK YARI 00005 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>1. Yarı</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Eşit</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2. Yarı</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>DEPLASMAN 0,5 A/Ü 40971 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>1. YARI KARŞILIKLI GOL 40978 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Var</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Yok</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>1. YARI EV SAHIBI 0,5 ALT/ÜST 40979 MBS 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Alt</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Üst</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2.31</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
